--- a/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>周别</t>
   </si>
@@ -57,6 +57,22 @@
   </si>
   <si>
     <t>在业务中开启自动验单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊掌柜餐厅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐沛华</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>副屏显示黑屏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>saas里删除show=0，停止服务</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -473,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -568,9 +584,21 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="7"/>

--- a/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>周别</t>
   </si>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>只能在套餐里使用</t>
+  </si>
+  <si>
+    <t>测试店铺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>不能自动接单</t>
@@ -80,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +118,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -161,7 +173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -184,6 +196,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -527,77 +554,98 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="9">
         <v>1.5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="9">
         <v>1.5</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" t="s">
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="9">
         <v>1.5</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" t="s">
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="9">
         <v>1.1200000000000001</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="3">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9">
         <v>1.19</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="E6" s="10" t="s">
         <v>17</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">

--- a/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>周别</t>
   </si>
@@ -37,6 +37,9 @@
     <t>解决方法</t>
   </si>
   <si>
+    <t>测试店铺</t>
+  </si>
+  <si>
     <t>用交换机连上打印机和电脑连不上</t>
   </si>
   <si>
@@ -52,39 +55,45 @@
     <t>只能在套餐里使用</t>
   </si>
   <si>
-    <t>测试店铺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>不能自动接单</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>在业务中开启自动验单</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>熊掌柜餐厅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>徐沛华</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>副屏显示黑屏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>saas里删除show=0，停止服务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛的故事</t>
+  </si>
+  <si>
+    <t>电子秤上的重量不能正确上传到电脑</t>
+  </si>
+  <si>
+    <t>周围有大功率电器影响</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +125,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -125,12 +135,148 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,12 +285,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -167,13 +499,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -195,29 +769,85 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -508,19 +1138,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" customWidth="1"/>
@@ -530,7 +1160,7 @@
     <col min="7" max="7" width="71.25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.25">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -554,119 +1184,135 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>1.5</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>1.5</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12" t="s">
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
         <v>9</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>1.5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10" t="s">
+      <c r="B5" s="8">
+        <v>1.12</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>1.19</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="7"/>
-      <c r="D7" s="7"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="7"/>
+    <row r="8" spans="2:2">
+      <c r="B8" s="15"/>
     </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="7"/>
+    <row r="9" spans="2:2">
+      <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="7"/>
+    <row r="10" spans="2:2">
+      <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="7"/>
+    <row r="11" spans="2:2">
+      <c r="B11" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>周别</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>周围有大功率电器影响</t>
+  </si>
+  <si>
+    <t>电子秤上的重量偶尔不能正确上传到电脑</t>
+  </si>
+  <si>
+    <t>SaaS里添加timeout=1000，增加延时</t>
   </si>
 </sst>
 </file>
@@ -87,13 +93,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,13 +125,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -605,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,137 +616,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -769,29 +768,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1146,8 +1139,8 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1285,30 +1278,47 @@
       <c r="B7" s="12">
         <v>2.1</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="15"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="15"/>
+      <c r="B9" s="13"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="15"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="15"/>
+      <c r="B11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>周别</t>
   </si>
@@ -86,6 +86,24 @@
   </si>
   <si>
     <t>SaaS里添加timeout=1000，增加延时</t>
+  </si>
+  <si>
+    <t>煲仔饭天润城店</t>
+  </si>
+  <si>
+    <t>58驱动装不上</t>
+  </si>
+  <si>
+    <t>在它无响应之前选择好驱动就可以。</t>
+  </si>
+  <si>
+    <t>软件退出以后第二次怎么都打不开</t>
+  </si>
+  <si>
+    <t>版本问题</t>
+  </si>
+  <si>
+    <t>降到0128的版本。</t>
   </si>
 </sst>
 </file>
@@ -746,11 +764,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -784,6 +805,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1140,185 +1164,219 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="70.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="71.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="70.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="71.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>1.5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>1.5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>1.5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>1.12</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>1.19</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>7</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="13">
         <v>2.1</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>10</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>3.6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="13"/>
+    <row r="9" s="2" customFormat="1" spans="1:7">
+      <c r="A9" s="14">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9">
+        <v>4.4</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="13"/>
+    <row r="10" s="2" customFormat="1" spans="1:7">
+      <c r="A10" s="14">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9">
+        <v>4.4</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="13"/>
+      <c r="B11" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>周别</t>
   </si>
@@ -88,15 +88,18 @@
     <t>SaaS里添加timeout=1000，增加延时</t>
   </si>
   <si>
+    <t xml:space="preserve">    煲仔饭天润城店    </t>
+  </si>
+  <si>
+    <t>58驱动装不上</t>
+  </si>
+  <si>
+    <t>在它无响应之前选择好驱动就可以。</t>
+  </si>
+  <si>
     <t>煲仔饭天润城店</t>
   </si>
   <si>
-    <t>58驱动装不上</t>
-  </si>
-  <si>
-    <t>在它无响应之前选择好驱动就可以。</t>
-  </si>
-  <si>
     <t>软件退出以后第二次怎么都打不开</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
   </si>
   <si>
     <t>降到0128的版本。</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
 </sst>
 </file>
@@ -111,11 +117,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -149,6 +155,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -156,11 +163,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,46 +275,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,75 +285,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,187 +314,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,17 +523,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,23 +537,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,10 +575,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -592,25 +592,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,137 +640,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,6 +779,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -801,17 +810,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1163,220 +1166,230 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="70.25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="71.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="70.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="71.25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="10">
         <v>1.5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="10">
         <v>1.5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>1.5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>1.12</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>1.19</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>7</v>
       </c>
       <c r="B7" s="13">
         <v>2.1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>10</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <v>3.6</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:7">
-      <c r="A9" s="14">
+      <c r="A9" s="9">
         <v>15</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="10">
         <v>4.4</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:7">
-      <c r="A10" s="14">
+      <c r="A10" s="9">
         <v>15</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <v>4.4</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="G10" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="15"/>
+    <row r="11" s="3" customFormat="1" spans="1:7">
+      <c r="A11" s="14">
+        <v>16</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
@@ -88,15 +88,6 @@
     <t>SaaS里添加timeout=1000，增加延时</t>
   </si>
   <si>
-    <t xml:space="preserve">    煲仔饭天润城店    </t>
-  </si>
-  <si>
-    <t>58驱动装不上</t>
-  </si>
-  <si>
-    <t>在它无响应之前选择好驱动就可以。</t>
-  </si>
-  <si>
     <t>煲仔饭天润城店</t>
   </si>
   <si>
@@ -109,7 +100,16 @@
     <t>降到0128的版本。</t>
   </si>
   <si>
-    <t>无</t>
+    <t>李不管南通店</t>
+  </si>
+  <si>
+    <t>厨房打印机出单延迟</t>
+  </si>
+  <si>
+    <t>网络问题，猫功率小带不动。</t>
+  </si>
+  <si>
+    <t>加一个路由器。</t>
   </si>
 </sst>
 </file>
@@ -117,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="23">
@@ -155,31 +155,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,17 +214,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,6 +238,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -221,8 +268,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,70 +278,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,25 +314,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,31 +464,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,121 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,6 +523,84 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -542,84 +620,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -628,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,137 +640,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,9 +811,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1164,10 +1161,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1352,44 +1349,35 @@
       <c r="E9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G9" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:7">
+    <row r="10" s="3" customFormat="1" spans="1:7">
       <c r="A10" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="10">
-        <v>4.4</v>
+        <v>4.16</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="E10" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:7">
-      <c r="A11" s="14">
-        <v>16</v>
-      </c>
-      <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>周别</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>加一个路由器。</t>
+  </si>
+  <si>
+    <t>木头家江大店</t>
+  </si>
+  <si>
+    <t>标签打印机出单时每一单最后一个菜品不出，跟着第二单一起出。</t>
+  </si>
+  <si>
+    <t>要和小票打印机纸张宽度保持一致。</t>
+  </si>
+  <si>
+    <t>打印机设置里纸张宽度不要选。</t>
   </si>
 </sst>
 </file>
@@ -117,11 +129,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -156,15 +168,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,122 +303,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,17 +535,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,45 +598,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -615,8 +612,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,137 +652,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,6 +795,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,6 +826,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1161,222 +1179,245 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="70.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="71.25" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="70.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="71.25" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>1.5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>1.5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>1.5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>1.12</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>1.19</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>7</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>2.1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>10</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>3.6</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:7">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>15</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>4.4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:7">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>16</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="11">
         <v>4.16</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="12" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="1" spans="1:7">
+      <c r="A11" s="15">
+        <v>17</v>
+      </c>
+      <c r="B11" s="11">
+        <v>4.23</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
@@ -121,7 +121,7 @@
     <t>要和小票打印机纸张宽度保持一致。</t>
   </si>
   <si>
-    <t>打印机设置里纸张宽度不要选。</t>
+    <t>打印机设置里纸张宽度不要选。端口改为Gp(BIAOQIAN-40-30)</t>
   </si>
 </sst>
 </file>
@@ -130,10 +130,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -168,35 +168,79 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -204,40 +248,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,13 +264,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -264,48 +297,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,6 +332,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -344,24 +380,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,73 +464,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,60 +507,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,17 +535,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,24 +574,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -594,6 +585,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,23 +627,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,137 +652,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,9 +795,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,9 +823,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1187,236 +1181,236 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="6" customWidth="1"/>
-    <col min="5" max="6" width="70.25" style="7" customWidth="1"/>
-    <col min="7" max="7" width="71.25" style="7" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="70.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="71.25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>1.5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1.5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>1.5</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>1.12</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>1.19</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>7</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>2.1</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>10</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>3.6</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:7">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>15</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>4.4</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:7">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>16</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>4.16</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" spans="1:7">
-      <c r="A11" s="15">
+    <row r="11" s="2" customFormat="1" spans="1:7">
+      <c r="A11" s="9">
         <v>17</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>4.23</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>35</v>
       </c>
     </row>

--- a/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>周别</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>打印机设置里纸张宽度不要选。端口改为Gp(BIAOQIAN-40-30)</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
 </sst>
 </file>
@@ -129,11 +132,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -168,22 +171,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,15 +200,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,7 +232,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,17 +256,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,22 +278,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -296,16 +307,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,37 +329,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,145 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,6 +538,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -550,11 +577,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,56 +627,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -640,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,16 +655,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,115 +673,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1173,10 +1176,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1414,6 +1417,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,11 +132,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -171,9 +171,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,122 +298,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,6 +329,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -341,175 +479,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,45 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -588,26 +549,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +576,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,133 +655,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,10 +1176,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1425,6 +1425,14 @@
         <v>36</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4">
+        <v>19</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>周别</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>无</t>
+  </si>
+  <si>
+    <t>佬李头柴锅饭</t>
+  </si>
+  <si>
+    <t>点菜宝能注册成功，登陆显示出错了，请稍后再试。</t>
+  </si>
+  <si>
+    <t>结账科目没有更新</t>
+  </si>
+  <si>
+    <t>联系段佳佳解决。</t>
   </si>
 </sst>
 </file>
@@ -134,9 +146,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -171,7 +183,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,113 +291,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,25 +341,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,78 +498,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +550,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -549,6 +600,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,65 +647,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,137 +667,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,6 +810,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,6 +841,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1176,261 +1194,284 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="70.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="71.25" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="70.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="71.25" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>1.5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>1.5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>1.5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>1.12</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>1.19</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>7</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>2.1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>10</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>3.6</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:7">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>15</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>4.4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:7">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>16</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="11">
         <v>4.16</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>17</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>4.23</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>18</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>19</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="1" spans="1:7">
+      <c r="A14" s="15">
+        <v>21</v>
+      </c>
+      <c r="B14" s="11">
+        <v>5.31</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>周别</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>联系段佳佳解决。</t>
+  </si>
+  <si>
+    <t>鹿角巷</t>
+  </si>
+  <si>
+    <t>标签打印机驱动安装不了</t>
+  </si>
+  <si>
+    <t>下载驱动人生，USB驱动卸了重装</t>
   </si>
 </sst>
 </file>
@@ -144,11 +153,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1194,10 +1203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1451,8 +1460,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" spans="1:7">
-      <c r="A14" s="15">
+    <row r="14" s="2" customFormat="1" spans="1:7">
+      <c r="A14" s="10">
         <v>21</v>
       </c>
       <c r="B14" s="11">
@@ -1472,6 +1481,43 @@
       </c>
       <c r="G14" s="12" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5">
+        <v>22</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5">
+        <v>23</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" s="4" customFormat="1" spans="1:7">
+      <c r="A17" s="15">
+        <v>24</v>
+      </c>
+      <c r="B17" s="11">
+        <v>6.14</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,13 +153,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,16 +191,121 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,16 +319,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,105 +337,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,187 +358,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,45 +567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -609,26 +578,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,8 +600,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,137 +684,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -819,9 +827,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -852,7 +857,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1203,321 +1208,329 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="6" customWidth="1"/>
-    <col min="5" max="6" width="70.25" style="7" customWidth="1"/>
-    <col min="7" max="7" width="71.25" style="7" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="70.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="71.25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>1.5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1.5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>1.5</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>1.12</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>1.19</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>7</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>2.1</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>10</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>3.6</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:7">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>15</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>4.4</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:7">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>16</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>4.16</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:7">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>17</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>4.23</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>18</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>19</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:7">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>21</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>5.31</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>22</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>23</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" spans="1:7">
-      <c r="A17" s="15">
+    <row r="17" s="2" customFormat="1" spans="1:7">
+      <c r="A17" s="9">
         <v>24</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>6.14</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4">
+        <v>25</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-徐沛华.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>周别</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>下载驱动人生，USB驱动卸了重装</t>
+  </si>
+  <si>
+    <t>农耕园生态酒店</t>
+  </si>
+  <si>
+    <t>打印机驱动安装一切正常，不出单</t>
+  </si>
+  <si>
+    <t>换个IP就好了</t>
   </si>
 </sst>
 </file>
@@ -153,11 +162,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -199,8 +208,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,129 +285,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,187 +367,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,6 +572,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,26 +633,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -664,6 +662,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -672,10 +681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,137 +693,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,6 +836,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -858,6 +870,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1208,329 +1223,350 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="70.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="71.25" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="70.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="71.25" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>1.5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>1.5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>1.5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>1.12</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>1.19</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>7</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>2.1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>10</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>3.6</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:7">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>15</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>4.4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:7">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>16</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="11">
         <v>4.16</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>17</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>4.23</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>18</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>19</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:7">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>21</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="11">
         <v>5.31</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>22</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>23</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:7">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>24</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="11">
         <v>6.14</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>25</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="19" s="4" customFormat="1" spans="1:7">
+      <c r="A19" s="16">
+        <v>26</v>
+      </c>
+      <c r="B19" s="11">
+        <v>6.27</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
